--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\meta-transfer-learning\pytorch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\meta-learning-for-img-cls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7C7063-6049-4F5D-99B8-D639FB051736}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C8A2F5-6328-415A-A595-E7120D18AF77}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,82 +30,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>实验日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>实验内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>Effect</t>
+  </si>
+  <si>
+    <t>Best Epoch</t>
+  </si>
+  <si>
+    <t>Statement</t>
+  </si>
+  <si>
+    <t>2019-09-26...20.57.34</t>
+  </si>
+  <si>
+    <t>mini_ss_resnet50</t>
+  </si>
+  <si>
+    <t>Pre Val acc</t>
+  </si>
+  <si>
+    <t>MiniResnet + SSConv</t>
+  </si>
+  <si>
+    <t>2019-09-26...23.38.26</t>
+  </si>
+  <si>
+    <t>mini_ss_resnet12</t>
+  </si>
+  <si>
+    <t>2019-09-27...01.02.43</t>
+  </si>
+  <si>
+    <t>mini_ss_resnet34</t>
+  </si>
+  <si>
+    <t>2019-09-26...20.42.10</t>
+  </si>
+  <si>
+    <t>mini_ss_resnet18</t>
+  </si>
+  <si>
+    <t>2019-09-27...09.03.03</t>
+  </si>
+  <si>
+    <t>MiniResnet#1 + SSConv</t>
+  </si>
+  <si>
+    <t>2019-09-27...09.10.36</t>
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MiniResnet架构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二层layer的stride为2，最后avgpool的kernel为2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mini_ss_resnet50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Best Epoch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Metric</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Val acc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-09-26...20.57.34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mini_ss_resnet12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-09-26...23.38.26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mini_ss_resnet34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-09-27...01.02.43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mini_ss_resnet18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-09-26...20.42.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Statement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MiniResnet + SSConv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Resnet基础上，
+layer2: stride=2
+avgpool: kernel=(5, 5)</t>
+  </si>
+  <si>
+    <t>MiniResnet#1架构</t>
+  </si>
+  <si>
+    <t>在MiniResnet基础上，
+con1: kernel_size=(3,3), stride=1, padding=2
+layer2: stride=2</t>
   </si>
 </sst>
 </file>
@@ -193,15 +193,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -210,6 +207,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,16 +497,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
@@ -515,291 +521,313 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="D2" s="3">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="E2" s="3">
+        <v>95</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.43990000000000001</v>
+      </c>
+      <c r="E3" s="3">
+        <v>61</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.54590000000000005</v>
+      </c>
+      <c r="E4" s="3">
+        <v>95</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.46589999999999998</v>
+      </c>
+      <c r="E5" s="3">
+        <v>66</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.49669999999999997</v>
+      </c>
+      <c r="E6" s="3">
+        <v>34</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="E2" s="4">
-        <v>95</v>
-      </c>
-      <c r="F2" s="4" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4">
-        <f>0.4399</f>
-        <v>0.43990000000000001</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="E7" s="3">
         <v>61</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.54590000000000005</v>
-      </c>
-      <c r="E4" s="4">
-        <v>95</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4">
-        <f>0.4659</f>
-        <v>0.46589999999999998</v>
-      </c>
-      <c r="E5" s="4">
-        <v>66</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="5"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="5"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="5"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="5"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="5"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
@@ -809,24 +837,76 @@
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="1"/>
+      <c r="A31" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="3"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>4</v>
+    <row r="32" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
